--- a/Roy/Calculator_Excel_REFramework/Data/Input/input.xlsx
+++ b/Roy/Calculator_Excel_REFramework/Data/Input/input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakes\OneDrive\Documents\UiPath\Calculator_Excel_REFramework\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakes\OneDrive\Desktop\UIPATH Git\RPA-Developer-in-30-Days\Roy\Calculator_Excel_REFramework\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/Roy/Calculator_Excel_REFramework/Data/Input/input.xlsx
+++ b/Roy/Calculator_Excel_REFramework/Data/Input/input.xlsx
@@ -1,100 +1,174 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakes\OneDrive\Desktop\UIPATH Git\RPA-Developer-in-30-Days\Roy\Calculator_Excel_REFramework\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <x:bookViews>
+    <x:workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="0" activeTab="0"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="162913"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>second</t>
-  </si>
-  <si>
-    <t>operand</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <x:si>
+    <x:t>first</x:t>
+  </x:si>
+  <x:si>
+    <x:t>second</x:t>
+  </x:si>
+  <x:si>
+    <x:t>operand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Result</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">8	
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">10	
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>*</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">27	
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">0	
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">5	
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">4	
+</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,97 +433,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D8"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A6" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A7" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A8" s="2" t="s"/>
+      <x:c r="B8" s="2" t="s"/>
+      <x:c r="C8" s="2" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="C5" r:id="rId5"/>
+  </x:hyperlinks>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="9" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId2"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/Roy/Calculator_Excel_REFramework/Data/Input/input.xlsx
+++ b/Roy/Calculator_Excel_REFramework/Data/Input/input.xlsx
@@ -392,7 +392,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/Roy/Calculator_Excel_REFramework/Data/Input/input.xlsx
+++ b/Roy/Calculator_Excel_REFramework/Data/Input/input.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>first</t>
   </si>
@@ -35,10 +35,40 @@
     <t>operand</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>-</t>
@@ -360,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,74 +410,79 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
